--- a/public/excel/setda.xlsx
+++ b/public/excel/setda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2B19E-1238-6C43-809A-D1D0DC5EF996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B3EC5C-D00B-EB4D-B5AC-F4D28E763450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1320" windowWidth="33600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pejabat" sheetId="1" r:id="rId1"/>
@@ -2619,8 +2619,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="82" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AK2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="67" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2650,11 +2650,11 @@
     <col min="28" max="28" width="12.6640625" customWidth="1"/>
     <col min="29" max="29" width="11.33203125" customWidth="1"/>
     <col min="30" max="30" width="11.5" customWidth="1"/>
-    <col min="31" max="31" width="13" customWidth="1"/>
+    <col min="31" max="31" width="17" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
     <col min="33" max="33" width="15.5" customWidth="1"/>
     <col min="34" max="34" width="18.5" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" style="50" customWidth="1"/>
+    <col min="35" max="35" width="13.83203125" style="50" customWidth="1"/>
     <col min="36" max="36" width="19.5" customWidth="1"/>
     <col min="37" max="37" width="14.6640625" customWidth="1"/>
     <col min="38" max="38" width="17.6640625" customWidth="1"/>
@@ -5346,9 +5346,9 @@
     <col min="27" max="27" width="10.83203125" customWidth="1"/>
     <col min="28" max="28" width="11.1640625" customWidth="1"/>
     <col min="29" max="30" width="10.1640625" customWidth="1"/>
-    <col min="31" max="31" width="12.83203125" customWidth="1"/>
-    <col min="32" max="32" width="14" customWidth="1"/>
-    <col min="33" max="33" width="13.6640625" customWidth="1"/>
+    <col min="31" max="31" width="19.5" customWidth="1"/>
+    <col min="32" max="32" width="19.1640625" customWidth="1"/>
+    <col min="33" max="33" width="18.33203125" customWidth="1"/>
     <col min="34" max="34" width="16.1640625" customWidth="1"/>
     <col min="35" max="35" width="15" customWidth="1"/>
     <col min="36" max="36" width="14" customWidth="1"/>
@@ -12670,7 +12670,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AN76"/>
   <sheetViews>
-    <sheetView topLeftCell="O21" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="V3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
@@ -12701,14 +12701,14 @@
     <col min="28" max="28" width="11.6640625" customWidth="1"/>
     <col min="29" max="29" width="10.1640625" customWidth="1"/>
     <col min="30" max="30" width="10.83203125" customWidth="1"/>
-    <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="12.6640625" customWidth="1"/>
-    <col min="33" max="33" width="11" customWidth="1"/>
-    <col min="34" max="34" width="11.33203125" customWidth="1"/>
+    <col min="31" max="31" width="15" customWidth="1"/>
+    <col min="32" max="32" width="16.1640625" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" customWidth="1"/>
+    <col min="34" max="34" width="17.33203125" customWidth="1"/>
     <col min="35" max="35" width="13.1640625" customWidth="1"/>
     <col min="36" max="36" width="12" customWidth="1"/>
     <col min="37" max="37" width="12.83203125" customWidth="1"/>
-    <col min="38" max="38" width="12.33203125" customWidth="1"/>
+    <col min="38" max="38" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -16787,12 +16787,14 @@
     <col min="27" max="27" width="11" customWidth="1"/>
     <col min="28" max="28" width="11.6640625" customWidth="1"/>
     <col min="29" max="30" width="10.1640625" customWidth="1"/>
-    <col min="31" max="31" width="12.83203125" customWidth="1"/>
-    <col min="32" max="33" width="11.1640625" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" customWidth="1"/>
+    <col min="31" max="31" width="15.5" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" customWidth="1"/>
+    <col min="34" max="34" width="15.83203125" customWidth="1"/>
     <col min="35" max="35" width="12.83203125" customWidth="1"/>
     <col min="36" max="36" width="15" customWidth="1"/>
     <col min="37" max="37" width="13.33203125" customWidth="1"/>
+    <col min="38" max="38" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -19937,7 +19939,7 @@
   <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5:AN31"/>
+      <selection activeCell="AG5" sqref="AG5:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19966,11 +19968,12 @@
     <col min="28" max="28" width="11.33203125" customWidth="1"/>
     <col min="29" max="30" width="10.1640625" customWidth="1"/>
     <col min="31" max="31" width="11.6640625" customWidth="1"/>
-    <col min="32" max="33" width="11.1640625" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" customWidth="1"/>
-    <col min="35" max="35" width="12.83203125" customWidth="1"/>
-    <col min="36" max="36" width="15" customWidth="1"/>
-    <col min="37" max="37" width="13.33203125" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" customWidth="1"/>
+    <col min="34" max="34" width="17" customWidth="1"/>
+    <col min="35" max="35" width="19.6640625" customWidth="1"/>
+    <col min="36" max="36" width="18.5" customWidth="1"/>
+    <col min="37" max="37" width="16" customWidth="1"/>
     <col min="38" max="38" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23719,10 +23722,10 @@
     <col min="27" max="27" width="11.5" customWidth="1"/>
     <col min="28" max="28" width="11" customWidth="1"/>
     <col min="29" max="30" width="10.1640625" customWidth="1"/>
-    <col min="31" max="31" width="14.83203125" customWidth="1"/>
+    <col min="31" max="31" width="15" customWidth="1"/>
     <col min="32" max="32" width="15.83203125" customWidth="1"/>
     <col min="33" max="33" width="16" customWidth="1"/>
-    <col min="34" max="34" width="15.6640625" customWidth="1"/>
+    <col min="34" max="34" width="17.6640625" customWidth="1"/>
     <col min="35" max="35" width="18.33203125" customWidth="1"/>
     <col min="36" max="36" width="15" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
@@ -26339,7 +26342,7 @@
   <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView topLeftCell="O1" zoomScale="56" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5:AN35"/>
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26368,9 +26371,9 @@
     <col min="27" max="27" width="11.5" customWidth="1"/>
     <col min="28" max="28" width="11.33203125" customWidth="1"/>
     <col min="29" max="30" width="10.1640625" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" customWidth="1"/>
-    <col min="32" max="32" width="15.33203125" customWidth="1"/>
-    <col min="33" max="33" width="14.5" customWidth="1"/>
+    <col min="31" max="31" width="18" customWidth="1"/>
+    <col min="32" max="32" width="18.33203125" customWidth="1"/>
+    <col min="33" max="33" width="17.1640625" customWidth="1"/>
     <col min="34" max="34" width="17.5" customWidth="1"/>
     <col min="35" max="35" width="14.1640625" customWidth="1"/>
     <col min="36" max="36" width="11.83203125" customWidth="1"/>
@@ -30402,8 +30405,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView topLeftCell="P28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AH33" sqref="AH33"/>
+    <sheetView topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34668,8 +34671,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AN61"/>
   <sheetViews>
-    <sheetView topLeftCell="W2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView topLeftCell="V1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34697,7 +34700,8 @@
     <col min="26" max="26" width="12.6640625" customWidth="1"/>
     <col min="27" max="28" width="11.33203125" customWidth="1"/>
     <col min="29" max="30" width="10.1640625" customWidth="1"/>
-    <col min="31" max="32" width="13" customWidth="1"/>
+    <col min="31" max="31" width="16.5" customWidth="1"/>
+    <col min="32" max="32" width="16.1640625" customWidth="1"/>
     <col min="33" max="33" width="16.6640625" customWidth="1"/>
     <col min="34" max="34" width="14.83203125" customWidth="1"/>
     <col min="35" max="35" width="16.33203125" customWidth="1"/>
@@ -37353,7 +37357,7 @@
     <col min="27" max="27" width="10.83203125" customWidth="1"/>
     <col min="28" max="28" width="11.6640625" customWidth="1"/>
     <col min="29" max="30" width="10.1640625" customWidth="1"/>
-    <col min="31" max="31" width="13.33203125" customWidth="1"/>
+    <col min="31" max="31" width="18.5" customWidth="1"/>
     <col min="32" max="32" width="18.33203125" customWidth="1"/>
     <col min="33" max="33" width="17.33203125" customWidth="1"/>
     <col min="34" max="34" width="16" customWidth="1"/>

--- a/public/excel/setda.xlsx
+++ b/public/excel/setda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/var/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C3643-284C-7F4D-88C0-268B722177E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88710F89-5A04-1947-AEF1-672A70A2D3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="113">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -2607,7 +2607,7 @@
   <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5198,8 +5198,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AL68"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R4" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="I1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8320,10 +8320,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R4" sqref="R1:R1048576"/>
+      <selection activeCell="AJ8" sqref="AJ8:AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8352,14 +8352,14 @@
     <col min="26" max="26" width="13.5" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="12.5" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="13.5" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="32" width="11.5" customWidth="1"/>
-    <col min="33" max="33" width="14.6640625" customWidth="1"/>
-    <col min="34" max="34" width="3.5" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" customWidth="1"/>
+    <col min="29" max="32" width="13" customWidth="1"/>
+    <col min="33" max="35" width="11.5" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" customWidth="1"/>
+    <col min="37" max="37" width="3.5" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="178" t="s">
         <v>66</v>
       </c>
@@ -8397,9 +8397,12 @@
       <c r="AG1" s="178"/>
       <c r="AH1" s="178"/>
       <c r="AI1" s="178"/>
-      <c r="AJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="178"/>
+      <c r="AK1" s="178"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="1"/>
+    </row>
+    <row r="2" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="178" t="s">
         <v>1</v>
       </c>
@@ -8437,9 +8440,12 @@
       <c r="AG2" s="178"/>
       <c r="AH2" s="178"/>
       <c r="AI2" s="178"/>
-      <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="2"/>
+    </row>
+    <row r="3" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="235" t="s">
         <v>100</v>
       </c>
@@ -8477,9 +8483,12 @@
       <c r="AG3" s="178"/>
       <c r="AH3" s="178"/>
       <c r="AI3" s="178"/>
-      <c r="AJ3" s="2"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ3" s="178"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="2"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="206" t="s">
         <v>4</v>
       </c>
@@ -8533,25 +8542,34 @@
       <c r="AA5" s="219"/>
       <c r="AB5" s="219"/>
       <c r="AC5" s="219"/>
-      <c r="AD5" s="240" t="s">
+      <c r="AD5" s="200" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE5" s="200" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF5" s="203" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG5" s="240" t="s">
         <v>18</v>
       </c>
-      <c r="AE5" s="240" t="s">
+      <c r="AH5" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="AF5" s="241" t="s">
+      <c r="AI5" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="215" t="s">
+      <c r="AJ5" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="AH5" s="236" t="s">
+      <c r="AK5" s="236" t="s">
         <v>22</v>
       </c>
-      <c r="AI5" s="237"/>
-      <c r="AJ5" s="3"/>
-    </row>
-    <row r="6" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL5" s="237"/>
+      <c r="AM5" s="3"/>
+    </row>
+    <row r="6" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="206"/>
       <c r="B6" s="206"/>
       <c r="C6" s="208"/>
@@ -8613,15 +8631,18 @@
       <c r="AC6" s="233" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="240"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="242"/>
-      <c r="AG6" s="215"/>
-      <c r="AH6" s="238"/>
-      <c r="AI6" s="239"/>
-      <c r="AJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:36" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="201"/>
+      <c r="AF6" s="204"/>
+      <c r="AG6" s="240"/>
+      <c r="AH6" s="240"/>
+      <c r="AI6" s="242"/>
+      <c r="AJ6" s="215"/>
+      <c r="AK6" s="238"/>
+      <c r="AL6" s="239"/>
+      <c r="AM6" s="3"/>
+    </row>
+    <row r="7" spans="1:39" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="206"/>
       <c r="B7" s="206"/>
       <c r="C7" s="208"/>
@@ -8661,15 +8682,18 @@
       <c r="AA7" s="218"/>
       <c r="AB7" s="218"/>
       <c r="AC7" s="234"/>
-      <c r="AD7" s="240"/>
-      <c r="AE7" s="240"/>
-      <c r="AF7" s="242"/>
-      <c r="AG7" s="215"/>
-      <c r="AH7" s="238"/>
-      <c r="AI7" s="239"/>
-      <c r="AJ7" s="3"/>
-    </row>
-    <row r="8" spans="1:36" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD7" s="202"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="205"/>
+      <c r="AG7" s="240"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="242"/>
+      <c r="AJ7" s="215"/>
+      <c r="AK7" s="238"/>
+      <c r="AL7" s="239"/>
+      <c r="AM7" s="3"/>
+    </row>
+    <row r="8" spans="1:39" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="124">
         <v>1</v>
       </c>
@@ -8737,27 +8761,39 @@
         <f t="shared" ref="AC8:AC16" si="6">+T8+X8+Z8+AB8</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="73">
-        <f t="shared" ref="AD8:AD16" si="7">ROUND(AC8*R8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="74">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="68">
-        <f t="shared" ref="AG8:AG16" si="8">AC8-AD8-AE8</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="81">
+      <c r="AD8" s="140">
+        <f>AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="140">
+        <f>AI8</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="140">
+        <f>AC8+AD8+AE8</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="73">
+        <f>ROUND(AC8*R8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="74">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="68">
+        <f>AF8-AG8-AH8-AI8</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="81">
         <v>1</v>
       </c>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="83"/>
-    </row>
-    <row r="9" spans="1:36" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="83"/>
+    </row>
+    <row r="9" spans="1:39" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="124">
         <v>2</v>
       </c>
@@ -8782,7 +8818,7 @@
       <c r="Q9" s="70"/>
       <c r="R9" s="70"/>
       <c r="S9" s="68">
-        <f t="shared" ref="S9:S16" si="9">I9*J9</f>
+        <f t="shared" ref="S9:S16" si="7">I9*J9</f>
         <v>0</v>
       </c>
       <c r="T9" s="68">
@@ -8813,25 +8849,37 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="81">
+      <c r="AD9" s="140">
+        <f t="shared" ref="AD9:AD15" si="8">AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="140">
+        <f t="shared" ref="AE9:AE15" si="9">AI9</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="140">
+        <f t="shared" ref="AF9:AF15" si="10">AC9+AD9+AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="73">
+        <f>ROUND(AC9*R9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="68">
+        <f t="shared" ref="AJ9:AJ16" si="11">AF9-AG9-AH9-AI9</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="81">
         <v>2</v>
       </c>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="83"/>
-    </row>
-    <row r="10" spans="1:36" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="83"/>
+    </row>
+    <row r="10" spans="1:39" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="124">
         <v>3</v>
       </c>
@@ -8848,7 +8896,7 @@
       <c r="L10" s="67"/>
       <c r="M10" s="67"/>
       <c r="N10" s="68">
-        <f t="shared" ref="N10:N13" si="10">I10*(SUM(J10:M10))*80%</f>
+        <f t="shared" ref="N10:N13" si="12">I10*(SUM(J10:M10))*80%</f>
         <v>0</v>
       </c>
       <c r="O10" s="69"/>
@@ -8856,7 +8904,7 @@
       <c r="Q10" s="70"/>
       <c r="R10" s="70"/>
       <c r="S10" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T10" s="68">
@@ -8876,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="68">
-        <f t="shared" ref="X10:X13" si="11">ROUND(SUM(U10:W10)*80%,0)</f>
+        <f t="shared" ref="X10:X13" si="13">ROUND(SUM(U10:W10)*80%,0)</f>
         <v>0</v>
       </c>
       <c r="Y10" s="68">
@@ -8896,28 +8944,40 @@
         <v>0</v>
       </c>
       <c r="AC10" s="72">
-        <f t="shared" ref="AC10:AC13" si="12">+T10+X10+Z10+AB10</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="68">
-        <f t="shared" ref="AG10:AG13" si="13">AC10-AD10-AE10</f>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="81">
+        <f t="shared" ref="AC10:AC13" si="14">+T10+X10+Z10+AB10</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="73">
+        <f>ROUND(AC10*R10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="81">
         <v>3</v>
       </c>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="83"/>
-    </row>
-    <row r="11" spans="1:36" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="83"/>
+    </row>
+    <row r="11" spans="1:39" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="124">
         <v>4</v>
       </c>
@@ -8934,7 +8994,7 @@
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
       <c r="N11" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O11" s="69"/>
@@ -8942,7 +9002,7 @@
       <c r="Q11" s="70"/>
       <c r="R11" s="70"/>
       <c r="S11" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T11" s="68">
@@ -8962,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y11" s="68"/>
@@ -8970,28 +9030,40 @@
       <c r="AA11" s="68"/>
       <c r="AB11" s="68"/>
       <c r="AC11" s="72">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="68">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="73">
+        <f>ROUND(AC11*R11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="81">
         <v>4</v>
       </c>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="83"/>
-    </row>
-    <row r="12" spans="1:36" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="83"/>
+    </row>
+    <row r="12" spans="1:39" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="124">
         <v>5</v>
       </c>
@@ -9008,7 +9080,7 @@
       <c r="L12" s="67"/>
       <c r="M12" s="67"/>
       <c r="N12" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O12" s="69"/>
@@ -9016,7 +9088,7 @@
       <c r="Q12" s="70"/>
       <c r="R12" s="70"/>
       <c r="S12" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T12" s="68">
@@ -9036,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y12" s="68">
@@ -9056,28 +9128,40 @@
         <v>0</v>
       </c>
       <c r="AC12" s="72">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="68">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="73">
+        <f>ROUND(AC12*R12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="81">
         <v>5</v>
       </c>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="83"/>
-    </row>
-    <row r="13" spans="1:36" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="83"/>
+    </row>
+    <row r="13" spans="1:39" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="124">
         <v>6</v>
       </c>
@@ -9094,7 +9178,7 @@
       <c r="L13" s="67"/>
       <c r="M13" s="67"/>
       <c r="N13" s="68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O13" s="69"/>
@@ -9102,7 +9186,7 @@
       <c r="Q13" s="70"/>
       <c r="R13" s="70"/>
       <c r="S13" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T13" s="68">
@@ -9122,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y13" s="68"/>
@@ -9130,28 +9214,40 @@
       <c r="AA13" s="68"/>
       <c r="AB13" s="68"/>
       <c r="AC13" s="72">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="68">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="73">
+        <f>ROUND(AC13*R13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="81">
         <v>6</v>
       </c>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="83"/>
-    </row>
-    <row r="14" spans="1:36" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="83"/>
+    </row>
+    <row r="14" spans="1:39" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="124">
         <v>7</v>
       </c>
@@ -9168,7 +9264,7 @@
       <c r="L14" s="67"/>
       <c r="M14" s="67"/>
       <c r="N14" s="68">
-        <f t="shared" ref="N14:N15" si="14">I14*(SUM(J14:M14))*80%</f>
+        <f t="shared" ref="N14:N15" si="15">I14*(SUM(J14:M14))*80%</f>
         <v>0</v>
       </c>
       <c r="O14" s="69"/>
@@ -9176,7 +9272,7 @@
       <c r="Q14" s="70"/>
       <c r="R14" s="70"/>
       <c r="S14" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T14" s="68">
@@ -9196,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="68">
-        <f t="shared" ref="X14:X15" si="15">ROUND(SUM(U14:W14)*80%,0)</f>
+        <f t="shared" ref="X14:X15" si="16">ROUND(SUM(U14:W14)*80%,0)</f>
         <v>0</v>
       </c>
       <c r="Y14" s="68">
@@ -9216,28 +9312,40 @@
         <v>0</v>
       </c>
       <c r="AC14" s="72">
-        <f t="shared" ref="AC14:AC15" si="16">+T14+X14+Z14+AB14</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="68">
-        <f t="shared" ref="AG14:AG15" si="17">AC14-AD14-AE14</f>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="81">
+        <f t="shared" ref="AC14:AC15" si="17">+T14+X14+Z14+AB14</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="73">
+        <f>ROUND(AC14*R14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="81">
         <v>7</v>
       </c>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="83"/>
-    </row>
-    <row r="15" spans="1:36" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="83"/>
+    </row>
+    <row r="15" spans="1:39" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="124">
         <v>8</v>
       </c>
@@ -9254,7 +9362,7 @@
       <c r="L15" s="67"/>
       <c r="M15" s="67"/>
       <c r="N15" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O15" s="69"/>
@@ -9262,7 +9370,7 @@
       <c r="Q15" s="70"/>
       <c r="R15" s="70"/>
       <c r="S15" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T15" s="68">
@@ -9282,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y15" s="68"/>
@@ -9290,28 +9398,40 @@
       <c r="AA15" s="68"/>
       <c r="AB15" s="68"/>
       <c r="AC15" s="72">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="68">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="81">
+      <c r="AD15" s="140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="73">
+        <f>ROUND(AC15*R15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="81">
         <v>8</v>
       </c>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="83"/>
-    </row>
-    <row r="16" spans="1:36" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL15" s="82"/>
+      <c r="AM15" s="83"/>
+    </row>
+    <row r="16" spans="1:39" s="84" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="124">
         <v>9</v>
       </c>
@@ -9336,7 +9456,7 @@
       <c r="Q16" s="70"/>
       <c r="R16" s="70"/>
       <c r="S16" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T16" s="68">
@@ -9367,25 +9487,37 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="74">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="81">
+      <c r="AD16" s="140">
+        <f t="shared" ref="AD11:AD17" si="18">AG16</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="140">
+        <f t="shared" ref="AE11:AE17" si="19">AI16</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="140">
+        <f t="shared" ref="AF11:AF17" si="20">AC16+AD16+AE16</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="73">
+        <f>ROUND(AC16*R16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="74">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="68">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="81">
         <v>9</v>
       </c>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="83"/>
-    </row>
-    <row r="17" spans="1:36" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL16" s="82"/>
+      <c r="AM16" s="83"/>
+    </row>
+    <row r="17" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83"/>
       <c r="K17" s="85"/>
       <c r="L17" s="86"/>
@@ -9410,40 +9542,58 @@
         <f>SUM(X8:X16)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="68">
-        <f>Y17</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="68">
-        <f>AA17</f>
+      <c r="Y17" s="88">
+        <f t="shared" ref="Y17:AI17" si="21">SUM(Y8:Y16)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="88">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="88">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="88">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC17" s="88">
-        <f>SUM(AC8:AC16)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AD17" s="88">
-        <f>SUM(AD8:AD16)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AE17" s="88">
-        <f>SUM(AE8:AE16)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AF17" s="88">
-        <f>SUM(AF8:AF16)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AG17" s="88">
-        <f>SUM(AG8:AG16)</f>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="91"/>
-    </row>
-    <row r="18" spans="1:36" s="84" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="88">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="88">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="88">
+        <f>SUM(AJ8:AJ16)</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="91"/>
+    </row>
+    <row r="18" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="83"/>
       <c r="K18" s="92"/>
       <c r="N18" s="93"/>
@@ -9466,8 +9616,11 @@
       <c r="AE18" s="95"/>
       <c r="AF18" s="95"/>
       <c r="AG18" s="95"/>
-    </row>
-    <row r="19" spans="1:36" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+    </row>
+    <row r="19" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83"/>
       <c r="K19" s="92"/>
       <c r="N19" s="93"/>
@@ -9490,8 +9643,11 @@
       <c r="AE19" s="95"/>
       <c r="AF19" s="95"/>
       <c r="AG19" s="95"/>
-    </row>
-    <row r="20" spans="1:36" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+    </row>
+    <row r="20" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="83"/>
       <c r="K20" s="92"/>
       <c r="N20" s="93"/>
@@ -9514,8 +9670,11 @@
       <c r="AE20" s="95"/>
       <c r="AF20" s="95"/>
       <c r="AG20" s="95"/>
-    </row>
-    <row r="21" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+    </row>
+    <row r="21" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -9542,15 +9701,15 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="6"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
       <c r="AG21" s="24"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="29"/>
-    </row>
-    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="29"/>
+    </row>
+    <row r="22" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="B22" s="166" t="s">
         <v>62</v>
       </c>
@@ -9585,9 +9744,12 @@
       <c r="AE22" s="50"/>
       <c r="AF22" s="50"/>
       <c r="AG22" s="50"/>
-      <c r="AI22" s="7"/>
-    </row>
-    <row r="23" spans="1:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AL22" s="7"/>
+    </row>
+    <row r="23" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="166" t="s">
         <v>63</v>
       </c>
@@ -9618,16 +9780,19 @@
       <c r="AA23" s="50"/>
       <c r="AB23" s="50"/>
       <c r="AC23" s="51"/>
-      <c r="AD23" s="166" t="s">
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="AE23" s="166"/>
-      <c r="AF23" s="166"/>
-      <c r="AG23" s="166"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="16"/>
-    </row>
-    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="AH23" s="166"/>
+      <c r="AI23" s="166"/>
+      <c r="AJ23" s="166"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="16"/>
+    </row>
+    <row r="24" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -9660,10 +9825,13 @@
       <c r="AE24" s="53"/>
       <c r="AF24" s="53"/>
       <c r="AG24" s="53"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="19"/>
-    </row>
-    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="19"/>
+    </row>
+    <row r="25" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -9692,14 +9860,17 @@
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
       <c r="AC25" s="53"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
       <c r="AG25" s="50"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-    </row>
-    <row r="26" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+    </row>
+    <row r="26" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
@@ -9728,12 +9899,15 @@
       <c r="AA26" s="50"/>
       <c r="AB26" s="50"/>
       <c r="AC26" s="55"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
       <c r="AG26" s="50"/>
-    </row>
-    <row r="27" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="50"/>
+    </row>
+    <row r="27" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -9763,11 +9937,14 @@
       <c r="AB27" s="50"/>
       <c r="AC27" s="50"/>
       <c r="AD27" s="50"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
       <c r="AG27" s="50"/>
-    </row>
-    <row r="28" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="50"/>
+    </row>
+    <row r="28" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="B28" s="165" t="s">
         <v>95</v>
       </c>
@@ -9798,14 +9975,17 @@
       <c r="AA28" s="50"/>
       <c r="AB28" s="50"/>
       <c r="AC28" s="50"/>
-      <c r="AD28" s="165" t="s">
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="AE28" s="165"/>
-      <c r="AF28" s="165"/>
-      <c r="AG28" s="165"/>
-    </row>
-    <row r="29" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="165"/>
+      <c r="AJ28" s="165"/>
+    </row>
+    <row r="29" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="B29" s="166" t="s">
         <v>97</v>
       </c>
@@ -9836,14 +10016,17 @@
       <c r="AA29" s="50"/>
       <c r="AB29" s="50"/>
       <c r="AC29" s="50"/>
-      <c r="AD29" s="166" t="s">
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+      <c r="AG29" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="AE29" s="166"/>
-      <c r="AF29" s="166"/>
-      <c r="AG29" s="166"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AH29" s="166"/>
+      <c r="AI29" s="166"/>
+      <c r="AJ29" s="166"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -9854,8 +10037,11 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
@@ -9870,9 +10056,12 @@
       <c r="AE31" s="18"/>
       <c r="AF31" s="18"/>
       <c r="AG31" s="18"/>
-      <c r="AH31" s="7"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="7"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
@@ -9885,9 +10074,12 @@
       <c r="AE32" s="18"/>
       <c r="AF32" s="18"/>
       <c r="AG32" s="18"/>
-      <c r="AH32" s="7"/>
-    </row>
-    <row r="33" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="7"/>
+    </row>
+    <row r="33" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
@@ -9900,9 +10092,12 @@
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
-      <c r="AH33" s="7"/>
-    </row>
-    <row r="34" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="7"/>
+    </row>
+    <row r="34" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
@@ -9915,10 +10110,13 @@
       <c r="AE34" s="18"/>
       <c r="AF34" s="18"/>
       <c r="AG34" s="18"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-    </row>
-    <row r="35" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+    </row>
+    <row r="35" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
@@ -9931,10 +10129,13 @@
       <c r="AE35" s="18"/>
       <c r="AF35" s="18"/>
       <c r="AG35" s="18"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-    </row>
-    <row r="36" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+    </row>
+    <row r="36" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
@@ -9949,8 +10150,11 @@
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
-    </row>
-    <row r="37" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+    </row>
+    <row r="37" spans="20:38" x14ac:dyDescent="0.2">
       <c r="T37" s="20"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
@@ -9964,10 +10168,13 @@
       <c r="AE37" s="20"/>
       <c r="AF37" s="20"/>
       <c r="AG37" s="20"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
-    </row>
-    <row r="38" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+    </row>
+    <row r="38" spans="20:38" x14ac:dyDescent="0.2">
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
       <c r="V38" s="18"/>
@@ -9982,10 +10189,13 @@
       <c r="AE38" s="18"/>
       <c r="AF38" s="18"/>
       <c r="AG38" s="18"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7"/>
-    </row>
-    <row r="39" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+    </row>
+    <row r="39" spans="20:38" x14ac:dyDescent="0.2">
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
       <c r="V39" s="18"/>
@@ -10000,10 +10210,13 @@
       <c r="AE39" s="21"/>
       <c r="AF39" s="21"/>
       <c r="AG39" s="21"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
-    </row>
-    <row r="40" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+    </row>
+    <row r="40" spans="20:38" x14ac:dyDescent="0.2">
       <c r="T40" s="21"/>
       <c r="U40" s="22"/>
       <c r="V40" s="23"/>
@@ -10018,10 +10231,13 @@
       <c r="AE40" s="21"/>
       <c r="AF40" s="21"/>
       <c r="AG40" s="21"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7"/>
-    </row>
-    <row r="41" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+    </row>
+    <row r="41" spans="20:38" x14ac:dyDescent="0.2">
       <c r="T41" s="22"/>
       <c r="U41" s="22"/>
       <c r="V41" s="23"/>
@@ -10036,10 +10252,13 @@
       <c r="AE41" s="23"/>
       <c r="AF41" s="23"/>
       <c r="AG41" s="23"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7"/>
-    </row>
-    <row r="42" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+    </row>
+    <row r="42" spans="20:38" x14ac:dyDescent="0.2">
       <c r="T42" s="22"/>
       <c r="U42" s="22"/>
       <c r="V42" s="23"/>
@@ -10054,10 +10273,13 @@
       <c r="AE42" s="23"/>
       <c r="AF42" s="23"/>
       <c r="AG42" s="23"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="7"/>
-    </row>
-    <row r="43" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+    </row>
+    <row r="43" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
@@ -10072,8 +10294,11 @@
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
-    </row>
-    <row r="44" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+    </row>
+    <row r="44" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
@@ -10088,8 +10313,11 @@
       <c r="AG44" s="7"/>
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
-    </row>
-    <row r="45" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+    </row>
+    <row r="45" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
@@ -10104,8 +10332,11 @@
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
       <c r="AI45" s="7"/>
-    </row>
-    <row r="46" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+    </row>
+    <row r="46" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
@@ -10120,8 +10351,11 @@
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
-    </row>
-    <row r="47" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+    </row>
+    <row r="47" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
@@ -10136,8 +10370,11 @@
       <c r="AG47" s="7"/>
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
-    </row>
-    <row r="48" spans="20:35" x14ac:dyDescent="0.2">
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+    </row>
+    <row r="48" spans="20:38" x14ac:dyDescent="0.2">
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
@@ -10152,8 +10389,11 @@
       <c r="AG48" s="7"/>
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
-    </row>
-    <row r="49" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+    </row>
+    <row r="49" spans="22:38" x14ac:dyDescent="0.2">
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
@@ -10168,8 +10408,11 @@
       <c r="AG49" s="7"/>
       <c r="AH49" s="7"/>
       <c r="AI49" s="7"/>
-    </row>
-    <row r="50" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+    </row>
+    <row r="50" spans="22:38" x14ac:dyDescent="0.2">
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
@@ -10184,8 +10427,11 @@
       <c r="AG50" s="7"/>
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
-    </row>
-    <row r="51" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+    </row>
+    <row r="51" spans="22:38" x14ac:dyDescent="0.2">
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
@@ -10200,8 +10446,11 @@
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
-    </row>
-    <row r="52" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+    </row>
+    <row r="52" spans="22:38" x14ac:dyDescent="0.2">
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
@@ -10216,8 +10465,11 @@
       <c r="AG52" s="7"/>
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
-    </row>
-    <row r="53" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+    </row>
+    <row r="53" spans="22:38" x14ac:dyDescent="0.2">
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
@@ -10232,8 +10484,11 @@
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
-    </row>
-    <row r="54" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+    </row>
+    <row r="54" spans="22:38" x14ac:dyDescent="0.2">
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
@@ -10247,8 +10502,11 @@
       <c r="AF54" s="7"/>
       <c r="AG54" s="7"/>
       <c r="AH54" s="7"/>
-    </row>
-    <row r="55" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+    </row>
+    <row r="55" spans="22:38" x14ac:dyDescent="0.2">
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
@@ -10262,8 +10520,11 @@
       <c r="AF55" s="7"/>
       <c r="AG55" s="7"/>
       <c r="AH55" s="7"/>
-    </row>
-    <row r="56" spans="22:35" x14ac:dyDescent="0.2">
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+    </row>
+    <row r="56" spans="22:38" x14ac:dyDescent="0.2">
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
@@ -10277,24 +10538,28 @@
       <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
       <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="AD29:AG29"/>
+  <mergeCells count="46">
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG29:AJ29"/>
     <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AG23:AJ23"/>
+    <mergeCell ref="AG28:AJ28"/>
     <mergeCell ref="U6:W6"/>
     <mergeCell ref="X6:X7"/>
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
     <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AI7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AL7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -10307,13 +10572,15 @@
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AE5:AE7"/>
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B28:R28"/>
     <mergeCell ref="B29:R29"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A2:AI2"/>
-    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="A3:AL3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -10334,8 +10601,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R4" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10634,7 +10901,7 @@
         <v>69</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="T7" s="215"/>
       <c r="U7" s="4" t="s">
@@ -12386,7 +12653,7 @@
       <c r="L9" s="110"/>
       <c r="M9" s="110"/>
       <c r="N9" s="111">
-        <f t="shared" ref="N8:N13" si="9">ROUND(I9*(SUM(J9:M9)),0)</f>
+        <f t="shared" ref="N9:N13" si="9">ROUND(I9*(SUM(J9:M9)),0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="112"/>
@@ -22234,7 +22501,7 @@
   <dimension ref="A1:AL61"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R4" sqref="R1:R1048576"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22550,7 +22817,7 @@
       <c r="Q7" s="168"/>
       <c r="R7" s="169"/>
       <c r="S7" s="57" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="T7" s="174"/>
       <c r="U7" s="58" t="s">
